--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/CodeSystem/bc-operation-outcome-details-code-system</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/CodeSystem/bc-operation-outcome-details-code-system</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T18:19:53+00:00</t>
+    <t>2021-11-17T21:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
   <si>
     <t>Description</t>
@@ -238,7 +244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -331,70 +337,78 @@
         <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T22:00:02+00:00</t>
+    <t>2021-11-26T18:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -364,49 +367,51 @@
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -35,7 +35,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCOperationOutcomeDetailsCS</t>
+    <t>OperationOutcomeDetailsCS</t>
   </si>
   <si>
     <t>Title</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/CodeSystem/bc-operation-outcome-details-code-system</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/CodeSystem/bc-operation-outcome-details-code-system</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -47,7 +47,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,10 +235,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -47,7 +47,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -47,7 +47,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -47,7 +47,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -53,10 +53,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -68,7 +71,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -309,43 +312,45 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>9</v>
@@ -353,65 +358,65 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-operation-outcome-details-code-system.xlsx
+++ b/CodeSystem-bc-operation-outcome-details-code-system.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
